--- a/KATALOG_DAMA.xlsx
+++ b/KATALOG_DAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE0BE9C-55DD-4E7A-9A08-EF056BDEFE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A341BA-E9B6-463F-91EC-D5CFC08B2ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="246">
   <si>
     <t>ALQURAN SAKU RESLETING QURAN MINI TERJEMAHAN | QURAN CANTIK | QURAN SAKU</t>
   </si>
@@ -760,6 +760,9 @@
   </si>
   <si>
     <t>HARGA</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al-Aqeel Kertas Koran Tanpa Terjemahan</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F8CC9F-DD7D-453D-93E0-632FA723DE62}">
-  <dimension ref="A1:F320"/>
+  <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B317" workbookViewId="0">
+      <selection activeCell="F320" sqref="F320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5964,6 +5967,14 @@
         <v>73260</v>
       </c>
     </row>
+    <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F321" s="5">
+        <v>19800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KATALOG_DAMA.xlsx
+++ b/KATALOG_DAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73A341BA-E9B6-463F-91EC-D5CFC08B2ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E4B30-D669-434C-84E4-377E8C7CCFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1191,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F8CC9F-DD7D-453D-93E0-632FA723DE62}">
   <dimension ref="A1:F321"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B317" workbookViewId="0">
-      <selection activeCell="F320" sqref="F320"/>
+    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
+      <selection activeCell="G323" sqref="G323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,7 +1234,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="3">
-        <v>58000</v>
+        <v>39300</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="3">
-        <v>13000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3">
-        <v>187000</v>
+        <v>149000</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,8 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="3">
-        <v>36250</v>
+        <f>18000+2500</f>
+        <v>20500</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1290,7 +1291,8 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="3">
-        <v>39050</v>
+        <f>18000+7300</f>
+        <v>25300</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1306,7 +1308,8 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="3">
-        <v>58650</v>
+        <f>18000+2500+7300</f>
+        <v>27800</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1322,7 +1325,8 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="3">
-        <v>33000</v>
+        <f>18000+5000</f>
+        <v>23000</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1402,7 +1406,8 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3">
-        <v>18000</v>
+        <f>7300+2500</f>
+        <v>9800</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1418,7 +1423,8 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3">
-        <v>20000</v>
+        <f>7300+3800</f>
+        <v>11100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1434,7 +1440,8 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="3">
-        <v>25000</v>
+        <f>7300+2500+3800</f>
+        <v>13600</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1450,7 +1457,8 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3">
-        <v>25000</v>
+        <f>7300+5000</f>
+        <v>12300</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1466,7 +1474,8 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="3">
-        <v>29250</v>
+        <f>14500+2500</f>
+        <v>17000</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1482,7 +1491,8 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="3">
-        <v>32750</v>
+        <f>14500+7300</f>
+        <v>21800</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1498,7 +1508,8 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="3">
-        <v>39750</v>
+        <f>14500+2500+7300</f>
+        <v>24300</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1514,7 +1525,8 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="3">
-        <v>39750</v>
+        <f>14500+5000</f>
+        <v>19500</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1530,7 +1542,8 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="3">
-        <v>23250</v>
+        <f>12500+1250</f>
+        <v>13750</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1546,7 +1559,8 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="3">
-        <v>28250</v>
+        <f>12500+7300</f>
+        <v>19800</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1562,7 +1576,8 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="3">
-        <v>28250</v>
+        <f>12500+2500+7300</f>
+        <v>22300</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1578,7 +1593,8 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3">
-        <v>25000</v>
+        <f>12500+5000</f>
+        <v>17500</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1596,7 +1612,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="3">
-        <v>19900</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1614,7 +1630,8 @@
         <v>17</v>
       </c>
       <c r="F26" s="3">
-        <v>58800</v>
+        <f>14500*3</f>
+        <v>43500</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1632,7 +1649,8 @@
         <v>18</v>
       </c>
       <c r="F27" s="3">
-        <v>98000</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1650,7 +1668,8 @@
         <v>19</v>
       </c>
       <c r="F28" s="3">
-        <v>135800</v>
+        <f>14500*7</f>
+        <v>101500</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1668,7 +1687,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="3">
-        <v>31620</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1686,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="3">
-        <v>19900</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1704,7 +1723,8 @@
         <v>17</v>
       </c>
       <c r="F31" s="3">
-        <v>58800</v>
+        <f>14500*3</f>
+        <v>43500</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1722,7 +1742,8 @@
         <v>18</v>
       </c>
       <c r="F32" s="3">
-        <v>98000</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1740,7 +1761,8 @@
         <v>19</v>
       </c>
       <c r="F33" s="3">
-        <v>135800</v>
+        <f>14500*7</f>
+        <v>101500</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1758,7 +1780,7 @@
         <v>16</v>
       </c>
       <c r="F34" s="3">
-        <v>31620</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1776,7 +1798,7 @@
         <v>16</v>
       </c>
       <c r="F35" s="3">
-        <v>19900</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1794,7 +1816,8 @@
         <v>17</v>
       </c>
       <c r="F36" s="3">
-        <v>58800</v>
+        <f>14500*3</f>
+        <v>43500</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1812,7 +1835,8 @@
         <v>18</v>
       </c>
       <c r="F37" s="3">
-        <v>98000</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1830,7 +1854,8 @@
         <v>19</v>
       </c>
       <c r="F38" s="3">
-        <v>135800</v>
+        <f>14500*7</f>
+        <v>101500</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1848,7 +1873,7 @@
         <v>16</v>
       </c>
       <c r="F39" s="3">
-        <v>31620</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1866,7 +1891,7 @@
         <v>16</v>
       </c>
       <c r="F40" s="3">
-        <v>19900</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1884,7 +1909,8 @@
         <v>17</v>
       </c>
       <c r="F41" s="3">
-        <v>58800</v>
+        <f>14500*3</f>
+        <v>43500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1902,7 +1928,8 @@
         <v>18</v>
       </c>
       <c r="F42" s="3">
-        <v>98000</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1920,7 +1947,8 @@
         <v>19</v>
       </c>
       <c r="F43" s="3">
-        <v>135800</v>
+        <f>14500*7</f>
+        <v>101500</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1938,7 +1966,7 @@
         <v>16</v>
       </c>
       <c r="F44" s="3">
-        <v>31620</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1956,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="F45" s="3">
-        <v>19900</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1974,7 +2002,8 @@
         <v>17</v>
       </c>
       <c r="F46" s="3">
-        <v>58800</v>
+        <f>14500*3</f>
+        <v>43500</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -1992,7 +2021,8 @@
         <v>18</v>
       </c>
       <c r="F47" s="3">
-        <v>98000</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2010,7 +2040,8 @@
         <v>19</v>
       </c>
       <c r="F48" s="3">
-        <v>135800</v>
+        <f>14500*7</f>
+        <v>101500</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2028,7 +2059,7 @@
         <v>16</v>
       </c>
       <c r="F49" s="3">
-        <v>31620</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2044,7 +2075,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="3">
-        <v>34979</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2060,7 +2091,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="3">
-        <v>34979</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2076,7 +2107,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="3">
-        <v>38810</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2092,7 +2123,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="3">
-        <v>38810</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2110,7 +2141,8 @@
         <v>16</v>
       </c>
       <c r="F54" s="3">
-        <v>18200</v>
+        <f>12500</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2128,7 +2160,8 @@
         <v>17</v>
       </c>
       <c r="F55" s="3">
-        <v>54000</v>
+        <f>12500*3</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2146,7 +2179,8 @@
         <v>18</v>
       </c>
       <c r="F56" s="3">
-        <v>89000</v>
+        <f>12500*5</f>
+        <v>62500</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2164,7 +2198,8 @@
         <v>19</v>
       </c>
       <c r="F57" s="3">
-        <v>123200</v>
+        <f>12500*7</f>
+        <v>87500</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2182,7 +2217,8 @@
         <v>16</v>
       </c>
       <c r="F58" s="3">
-        <v>18200</v>
+        <f>12500</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2200,7 +2236,8 @@
         <v>17</v>
       </c>
       <c r="F59" s="3">
-        <v>54000</v>
+        <f>12500*3</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2218,7 +2255,8 @@
         <v>18</v>
       </c>
       <c r="F60" s="3">
-        <v>89000</v>
+        <f>12500*5</f>
+        <v>62500</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2236,7 +2274,8 @@
         <v>19</v>
       </c>
       <c r="F61" s="3">
-        <v>123200</v>
+        <f>12500*7</f>
+        <v>87500</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2254,7 +2293,8 @@
         <v>16</v>
       </c>
       <c r="F62" s="3">
-        <v>18200</v>
+        <f>12500</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2272,7 +2312,8 @@
         <v>17</v>
       </c>
       <c r="F63" s="3">
-        <v>54000</v>
+        <f>12500*3</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2290,7 +2331,8 @@
         <v>18</v>
       </c>
       <c r="F64" s="3">
-        <v>89000</v>
+        <f>12500*5</f>
+        <v>62500</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2308,7 +2350,8 @@
         <v>19</v>
       </c>
       <c r="F65" s="3">
-        <v>123200</v>
+        <f>12500*7</f>
+        <v>87500</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2326,7 +2369,8 @@
         <v>16</v>
       </c>
       <c r="F66" s="3">
-        <v>18200</v>
+        <f>12500</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2344,7 +2388,8 @@
         <v>17</v>
       </c>
       <c r="F67" s="3">
-        <v>54000</v>
+        <f>12500*3</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2362,7 +2407,8 @@
         <v>18</v>
       </c>
       <c r="F68" s="3">
-        <v>89000</v>
+        <f>12500*5</f>
+        <v>62500</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2380,7 +2426,8 @@
         <v>19</v>
       </c>
       <c r="F69" s="3">
-        <v>123200</v>
+        <f>12500*7</f>
+        <v>87500</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2398,7 +2445,8 @@
         <v>16</v>
       </c>
       <c r="F70" s="3">
-        <v>18200</v>
+        <f>12500</f>
+        <v>12500</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2416,7 +2464,8 @@
         <v>17</v>
       </c>
       <c r="F71" s="3">
-        <v>54000</v>
+        <f>12500*3</f>
+        <v>37500</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2434,7 +2483,8 @@
         <v>18</v>
       </c>
       <c r="F72" s="3">
-        <v>89000</v>
+        <f>12500*5</f>
+        <v>62500</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2452,7 +2502,8 @@
         <v>19</v>
       </c>
       <c r="F73" s="3">
-        <v>123200</v>
+        <f>12500*7</f>
+        <v>87500</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2470,7 +2521,8 @@
         <v>18</v>
       </c>
       <c r="F74" s="3">
-        <v>94500</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2488,7 +2540,8 @@
         <v>32</v>
       </c>
       <c r="F75" s="3">
-        <v>194000</v>
+        <f>14500*10</f>
+        <v>145000</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2506,7 +2559,8 @@
         <v>18</v>
       </c>
       <c r="F76" s="3">
-        <v>94500</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2524,7 +2578,8 @@
         <v>32</v>
       </c>
       <c r="F77" s="3">
-        <v>194000</v>
+        <f>14500*10</f>
+        <v>145000</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2542,7 +2597,8 @@
         <v>18</v>
       </c>
       <c r="F78" s="3">
-        <v>94500</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2560,7 +2616,8 @@
         <v>32</v>
       </c>
       <c r="F79" s="3">
-        <v>194000</v>
+        <f>14500*10</f>
+        <v>145000</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2578,7 +2635,8 @@
         <v>18</v>
       </c>
       <c r="F80" s="3">
-        <v>94500</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2596,7 +2654,8 @@
         <v>32</v>
       </c>
       <c r="F81" s="3">
-        <v>194000</v>
+        <f>14500*10</f>
+        <v>145000</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2614,7 +2673,8 @@
         <v>18</v>
       </c>
       <c r="F82" s="3">
-        <v>94500</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2632,7 +2692,8 @@
         <v>32</v>
       </c>
       <c r="F83" s="3">
-        <v>194000</v>
+        <f>14500*10</f>
+        <v>145000</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2648,7 +2709,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="3">
-        <v>56450</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2664,7 +2725,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="3">
-        <v>47250</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2680,7 +2741,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="3">
-        <v>33650</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2696,7 +2757,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="3">
-        <v>22850</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2712,7 +2773,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="3">
-        <v>16550</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2728,7 +2789,7 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="3">
-        <v>56450</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2744,7 +2805,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="3">
-        <v>47250</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2760,7 +2821,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="3">
-        <v>33650</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2776,7 +2837,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="3">
-        <v>22850</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2792,7 +2853,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="3">
-        <v>16550</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2806,7 +2867,7 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2820,7 +2881,7 @@
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2834,7 +2895,7 @@
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2848,7 +2909,7 @@
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2862,7 +2923,7 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2876,7 +2937,7 @@
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2890,7 +2951,7 @@
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2904,7 +2965,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="3">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2918,7 +2979,7 @@
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2932,7 +2993,7 @@
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2946,7 +3007,7 @@
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2960,7 +3021,7 @@
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2974,7 +3035,7 @@
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -2988,7 +3049,7 @@
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3002,7 +3063,7 @@
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3016,7 +3077,7 @@
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3030,7 +3091,7 @@
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3044,7 +3105,7 @@
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3058,7 +3119,7 @@
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3072,7 +3133,7 @@
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3086,7 +3147,7 @@
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3100,7 +3161,7 @@
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3114,7 +3175,7 @@
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3128,7 +3189,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3142,7 +3203,7 @@
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3156,7 +3217,7 @@
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3170,7 +3231,7 @@
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3184,7 +3245,7 @@
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3198,7 +3259,7 @@
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3212,7 +3273,7 @@
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3226,7 +3287,7 @@
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3240,7 +3301,7 @@
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3254,7 +3315,7 @@
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3268,7 +3329,7 @@
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3282,7 +3343,7 @@
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3296,7 +3357,7 @@
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="3">
-        <v>35000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3310,7 +3371,7 @@
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="3">
-        <v>15000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3324,7 +3385,7 @@
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="3">
-        <v>15000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3338,7 +3399,7 @@
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="3">
-        <v>15000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3352,7 +3413,7 @@
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="3">
-        <v>15000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3366,7 +3427,7 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="3">
-        <v>15000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3380,7 +3441,7 @@
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="3">
-        <v>15000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3394,7 +3455,7 @@
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="3">
-        <v>81000</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3408,7 +3469,7 @@
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3422,7 +3483,7 @@
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3436,7 +3497,7 @@
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3450,7 +3511,7 @@
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3464,7 +3525,7 @@
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3478,7 +3539,7 @@
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="3">
-        <v>27300</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -3490,7 +3551,7 @@
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="3">
-        <v>13700</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3504,7 +3565,7 @@
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="3">
-        <v>63000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3518,7 +3579,7 @@
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3532,7 +3593,7 @@
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3546,7 +3607,7 @@
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3560,7 +3621,7 @@
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3574,7 +3635,7 @@
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3588,7 +3649,7 @@
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3602,7 +3663,7 @@
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3616,7 +3677,7 @@
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3630,7 +3691,7 @@
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3644,7 +3705,7 @@
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3658,7 +3719,7 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3672,7 +3733,7 @@
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3686,7 +3747,7 @@
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3700,7 +3761,7 @@
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3714,7 +3775,7 @@
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3728,7 +3789,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3742,7 +3803,7 @@
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3756,7 +3817,7 @@
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3770,7 +3831,7 @@
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="3">
-        <v>36000</v>
+        <v>25577</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3784,7 +3845,7 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="3">
-        <v>50000</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3798,7 +3859,7 @@
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3812,7 +3873,7 @@
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3826,7 +3887,7 @@
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3840,7 +3901,7 @@
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3854,7 +3915,7 @@
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3868,7 +3929,7 @@
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3882,7 +3943,7 @@
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3896,7 +3957,7 @@
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3910,7 +3971,7 @@
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3924,7 +3985,7 @@
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3938,7 +3999,7 @@
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3952,7 +4013,7 @@
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3966,7 +4027,7 @@
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3980,7 +4041,7 @@
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -3994,7 +4055,7 @@
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4008,7 +4069,7 @@
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4022,7 +4083,7 @@
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4036,7 +4097,7 @@
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4050,7 +4111,7 @@
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4064,7 +4125,7 @@
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="3">
-        <v>29500</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4078,7 +4139,7 @@
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4092,7 +4153,7 @@
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4106,7 +4167,7 @@
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4120,7 +4181,7 @@
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4134,7 +4195,7 @@
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4148,7 +4209,7 @@
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4162,7 +4223,7 @@
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4176,7 +4237,7 @@
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4190,7 +4251,7 @@
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4204,7 +4265,7 @@
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="3">
-        <v>31200</v>
+        <v>14325</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4218,7 +4279,7 @@
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="3">
-        <v>23000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4232,7 +4293,7 @@
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="3">
-        <v>23000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4246,7 +4307,7 @@
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="3">
-        <v>23000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4260,7 +4321,7 @@
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="3">
-        <v>23000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4274,7 +4335,7 @@
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="3">
-        <v>23000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4288,7 +4349,8 @@
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="3">
-        <v>24500</v>
+        <f>14000+1000</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4302,7 +4364,7 @@
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="3">
-        <v>51000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4316,7 +4378,7 @@
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="3">
-        <v>51000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4332,7 +4394,7 @@
       </c>
       <c r="E203" s="2"/>
       <c r="F203" s="3">
-        <v>36500</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4346,7 +4408,7 @@
       </c>
       <c r="E204" s="2"/>
       <c r="F204" s="3">
-        <v>61390</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4362,7 +4424,7 @@
       </c>
       <c r="E205" s="2"/>
       <c r="F205" s="3">
-        <v>36500</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4376,7 +4438,7 @@
       </c>
       <c r="E206" s="2"/>
       <c r="F206" s="3">
-        <v>61390</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4390,7 +4452,7 @@
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="3">
-        <v>41900</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4404,7 +4466,7 @@
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="3">
-        <v>41900</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4418,7 +4480,7 @@
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="3">
-        <v>41900</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4432,7 +4494,7 @@
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="3">
-        <v>41900</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4446,7 +4508,7 @@
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="3">
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4460,7 +4522,7 @@
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="3">
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4474,7 +4536,7 @@
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="3">
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4488,7 +4550,7 @@
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="3">
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4502,7 +4564,7 @@
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="3">
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4516,7 +4578,7 @@
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="3">
-        <v>6800</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4530,7 +4592,7 @@
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="3">
-        <v>40800</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4544,7 +4606,7 @@
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="3">
-        <v>8326</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4558,7 +4620,7 @@
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="3">
-        <v>8326</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4572,7 +4634,7 @@
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="3">
-        <v>8326</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4586,7 +4648,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="3">
-        <v>8326</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4600,7 +4662,7 @@
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="3">
-        <v>8326</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4614,7 +4676,7 @@
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="3">
-        <v>8326</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4628,7 +4690,7 @@
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="3">
-        <v>43750</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -4642,7 +4704,8 @@
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="3">
-        <v>8460</v>
+        <f>2500+1100</f>
+        <v>3600</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4656,7 +4719,8 @@
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="3">
-        <v>8460</v>
+        <f t="shared" ref="F226:F231" si="0">2500+1100</f>
+        <v>3600</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -4670,7 +4734,8 @@
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="3">
-        <v>8460</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,7 +4749,8 @@
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="3">
-        <v>8460</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -4698,7 +4764,8 @@
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="3">
-        <v>8460</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -4712,7 +4779,8 @@
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="3">
-        <v>8460</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -4726,7 +4794,8 @@
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="3">
-        <v>8460</v>
+        <f t="shared" si="0"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4740,7 +4809,7 @@
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4754,7 +4823,7 @@
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4768,7 +4837,7 @@
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4782,7 +4851,7 @@
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4796,7 +4865,7 @@
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4810,7 +4879,7 @@
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="3">
-        <v>18000</v>
+        <v>8100</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4824,7 +4893,7 @@
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="3">
-        <v>95000</v>
+        <v>48600</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4838,7 +4907,7 @@
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="3">
-        <v>76500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4852,7 +4921,7 @@
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="3">
-        <v>76500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4866,7 +4935,7 @@
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="3">
-        <v>76500</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -4878,7 +4947,7 @@
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="3">
-        <v>16500</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4890,7 +4959,7 @@
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="3">
-        <v>22534</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4902,7 +4971,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="3">
-        <v>34000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4916,7 +4985,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="3">
-        <v>120000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4930,7 +4999,7 @@
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="3">
-        <v>120000</v>
+        <v>95000</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4944,7 +5013,8 @@
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="3">
-        <v>19250</v>
+        <f>64800/6</f>
+        <v>10800</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4958,7 +5028,8 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="3">
-        <v>19250</v>
+        <f t="shared" ref="F248:F252" si="1">64800/6</f>
+        <v>10800</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4972,7 +5043,8 @@
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="3">
-        <v>19250</v>
+        <f t="shared" si="1"/>
+        <v>10800</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -4986,7 +5058,8 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="3">
-        <v>19250</v>
+        <f t="shared" si="1"/>
+        <v>10800</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5000,7 +5073,8 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="3">
-        <v>19250</v>
+        <f t="shared" si="1"/>
+        <v>10800</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5014,7 +5088,8 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="3">
-        <v>19250</v>
+        <f t="shared" si="1"/>
+        <v>10800</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5028,7 +5103,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="3">
-        <v>82500</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -5040,7 +5115,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="3">
-        <v>18500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5054,7 +5129,8 @@
         <v>186</v>
       </c>
       <c r="F255" s="3">
-        <v>425</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5068,7 +5144,8 @@
         <v>187</v>
       </c>
       <c r="F256" s="3">
-        <v>400</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5082,7 +5159,8 @@
         <v>188</v>
       </c>
       <c r="F257" s="3">
-        <v>375</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5096,7 +5174,8 @@
         <v>189</v>
       </c>
       <c r="F258" s="3">
-        <v>350</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5110,7 +5189,8 @@
         <v>190</v>
       </c>
       <c r="F259" s="3">
-        <v>330</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5124,7 +5204,8 @@
         <v>192</v>
       </c>
       <c r="F260" s="3">
-        <v>400</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5138,7 +5219,8 @@
         <v>193</v>
       </c>
       <c r="F261" s="3">
-        <v>400</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5152,7 +5234,8 @@
         <v>194</v>
       </c>
       <c r="F262" s="3">
-        <v>800</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5166,7 +5249,8 @@
         <v>195</v>
       </c>
       <c r="F263" s="3">
-        <v>800</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5180,7 +5264,8 @@
         <v>196</v>
       </c>
       <c r="F264" s="3">
-        <v>380</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5194,7 +5279,8 @@
         <v>197</v>
       </c>
       <c r="F265" s="3">
-        <v>380</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5208,7 +5294,8 @@
         <v>198</v>
       </c>
       <c r="F266" s="3">
-        <v>385</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5222,7 +5309,8 @@
         <v>199</v>
       </c>
       <c r="F267" s="3">
-        <v>385</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5236,7 +5324,8 @@
         <v>200</v>
       </c>
       <c r="F268" s="3">
-        <v>750</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5250,7 +5339,8 @@
         <v>201</v>
       </c>
       <c r="F269" s="3">
-        <v>750</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5264,7 +5354,8 @@
         <v>202</v>
       </c>
       <c r="F270" s="3">
-        <v>370</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5278,7 +5369,8 @@
         <v>203</v>
       </c>
       <c r="F271" s="3">
-        <v>370</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5292,7 +5384,8 @@
         <v>204</v>
       </c>
       <c r="F272" s="3">
-        <v>359</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5306,7 +5399,8 @@
         <v>205</v>
       </c>
       <c r="F273" s="3">
-        <v>359</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5320,7 +5414,8 @@
         <v>206</v>
       </c>
       <c r="F274" s="3">
-        <v>698</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5334,7 +5429,8 @@
         <v>207</v>
       </c>
       <c r="F275" s="3">
-        <v>698</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5348,7 +5444,8 @@
         <v>208</v>
       </c>
       <c r="F276" s="3">
-        <v>340</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5362,7 +5459,8 @@
         <v>209</v>
       </c>
       <c r="F277" s="3">
-        <v>340</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="278" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5376,7 +5474,8 @@
         <v>210</v>
       </c>
       <c r="F278" s="3">
-        <v>325</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5390,7 +5489,8 @@
         <v>211</v>
       </c>
       <c r="F279" s="3">
-        <v>325</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5404,7 +5504,8 @@
         <v>212</v>
       </c>
       <c r="F280" s="3">
-        <v>600</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5418,7 +5519,8 @@
         <v>213</v>
       </c>
       <c r="F281" s="3">
-        <v>600</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5432,7 +5534,8 @@
         <v>214</v>
       </c>
       <c r="F282" s="3">
-        <v>295</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5446,7 +5549,8 @@
         <v>215</v>
       </c>
       <c r="F283" s="3">
-        <v>295</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5460,7 +5564,8 @@
         <v>216</v>
       </c>
       <c r="F284" s="3">
-        <v>325</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5474,7 +5579,8 @@
         <v>217</v>
       </c>
       <c r="F285" s="3">
-        <v>325</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5488,7 +5594,8 @@
         <v>218</v>
       </c>
       <c r="F286" s="3">
-        <v>600</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5502,7 +5609,8 @@
         <v>219</v>
       </c>
       <c r="F287" s="3">
-        <v>600</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5516,7 +5624,8 @@
         <v>220</v>
       </c>
       <c r="F288" s="3">
-        <v>295</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5530,7 +5639,8 @@
         <v>221</v>
       </c>
       <c r="F289" s="3">
-        <v>295</v>
+        <f>175</f>
+        <v>175</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5544,7 +5654,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2"/>
       <c r="F290" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5558,7 +5668,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2"/>
       <c r="F291" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5572,7 +5682,7 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
       <c r="F292" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5586,7 +5696,7 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
       <c r="F293" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5600,7 +5710,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2"/>
       <c r="F294" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5614,7 +5724,7 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2"/>
       <c r="F295" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5628,7 +5738,7 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2"/>
       <c r="F296" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5642,7 +5752,7 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2"/>
       <c r="F297" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5656,7 +5766,7 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
       <c r="F298" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5670,7 +5780,7 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
       <c r="F299" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5684,7 +5794,7 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
       <c r="F300" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5698,7 +5808,7 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
       <c r="F301" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5712,7 +5822,7 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2"/>
       <c r="F302" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5726,7 +5836,7 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2"/>
       <c r="F303" s="3">
-        <v>35000</v>
+        <v>19256</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5740,7 +5850,8 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
       <c r="F304" s="3">
-        <v>58000</v>
+        <f>135000/9</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5754,7 +5865,8 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
       <c r="F305" s="3">
-        <v>58000</v>
+        <f t="shared" ref="F305:F312" si="2">135000/9</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5768,7 +5880,8 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2"/>
       <c r="F306" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5782,7 +5895,8 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2"/>
       <c r="F307" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5796,7 +5910,8 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
       <c r="F308" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5810,7 +5925,8 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
       <c r="F309" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5824,7 +5940,8 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2"/>
       <c r="F310" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5838,7 +5955,8 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2"/>
       <c r="F311" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5852,7 +5970,8 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
       <c r="F312" s="3">
-        <v>58000</v>
+        <f t="shared" si="2"/>
+        <v>15000</v>
       </c>
     </row>
     <row r="313" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5866,7 +5985,8 @@
         <v>232</v>
       </c>
       <c r="F313" s="3">
-        <v>15000</v>
+        <f>250*20</f>
+        <v>5000</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5880,7 +6000,8 @@
         <v>233</v>
       </c>
       <c r="F314" s="3">
-        <v>15000</v>
+        <f>250*35</f>
+        <v>8750</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5894,7 +6015,8 @@
         <v>235</v>
       </c>
       <c r="F315" s="3">
-        <v>100000</v>
+        <f>14500*5</f>
+        <v>72500</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5908,7 +6030,7 @@
         <v>236</v>
       </c>
       <c r="F316" s="3">
-        <v>225000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5922,7 +6044,7 @@
         <v>237</v>
       </c>
       <c r="F317" s="3">
-        <v>350000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5936,7 +6058,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2"/>
       <c r="F318" s="3">
-        <v>73260</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5950,7 +6072,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2"/>
       <c r="F319" s="3">
-        <v>73260</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5964,7 +6086,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2"/>
       <c r="F320" s="3">
-        <v>73260</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -5972,7 +6094,7 @@
         <v>245</v>
       </c>
       <c r="F321" s="5">
-        <v>19800</v>
+        <v>14500</v>
       </c>
     </row>
   </sheetData>

--- a/KATALOG_DAMA.xlsx
+++ b/KATALOG_DAMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1E4B30-D669-434C-84E4-377E8C7CCFC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B97FBB-9BBA-4729-AC21-F27BC3667DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="247">
   <si>
     <t>ALQURAN SAKU RESLETING QURAN MINI TERJEMAHAN | QURAN CANTIK | QURAN SAKU</t>
   </si>
@@ -763,6 +763,9 @@
   </si>
   <si>
     <t>Al Quran Mushaf Al-Aqeel Kertas Koran Tanpa Terjemahan</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Aqeel Full Color A5 HVS</t>
   </si>
 </sst>
 </file>
@@ -1189,15 +1192,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F8CC9F-DD7D-453D-93E0-632FA723DE62}">
-  <dimension ref="A1:F321"/>
+  <dimension ref="A1:F322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A315" workbookViewId="0">
-      <selection activeCell="G323" sqref="G323"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="A323" sqref="A323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
@@ -6097,6 +6100,14 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="F322" s="5">
+        <v>18500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KATALOG_DAMA.xlsx
+++ b/KATALOG_DAMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B97FBB-9BBA-4729-AC21-F27BC3667DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEBA3D-D2A2-46D5-AEF1-E7FCD24BA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="248">
   <si>
     <t>ALQURAN SAKU RESLETING QURAN MINI TERJEMAHAN | QURAN CANTIK | QURAN SAKU</t>
   </si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>Al Quran Mushaf Al Aqeel Full Color A5 HVS</t>
+  </si>
+  <si>
+    <t>PAKET MURAH Al Quran Mushaf Al-Aqeel A5 Kertas Koran Tanpa Terjemahan | BANDUNG</t>
   </si>
 </sst>
 </file>
@@ -1192,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F8CC9F-DD7D-453D-93E0-632FA723DE62}">
-  <dimension ref="A1:F322"/>
+  <dimension ref="A1:F323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="A323" sqref="A323"/>
+    <sheetView tabSelected="1" topLeftCell="B319" workbookViewId="0">
+      <selection activeCell="F324" sqref="F324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1267,7 @@
         <v>149000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>20500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>25300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1332,7 +1335,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1351,7 @@
         <v>46750</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>50250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>74750</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>50250</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1430,7 +1433,7 @@
         <v>11100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1464,7 +1467,7 @@
         <v>12300</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1481,7 +1484,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1532,7 +1535,7 @@
         <v>19500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>13750</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1566,7 +1569,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -2065,7 +2068,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>25</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>25</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>25</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>25</v>
       </c>
@@ -2509,7 +2512,7 @@
         <v>87500</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>31</v>
       </c>
@@ -2528,7 +2531,7 @@
         <v>72500</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>31</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>31</v>
       </c>
@@ -2566,7 +2569,7 @@
         <v>72500</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>31</v>
       </c>
@@ -2585,7 +2588,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>31</v>
       </c>
@@ -2604,7 +2607,7 @@
         <v>72500</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>31</v>
       </c>
@@ -2623,7 +2626,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>31</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>72500</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>31</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>145000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>31</v>
       </c>
@@ -2680,7 +2683,7 @@
         <v>72500</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>31</v>
       </c>
@@ -4271,7 +4274,7 @@
         <v>14325</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>131</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>131</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>131</v>
       </c>
@@ -4313,7 +4316,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>131</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>131</v>
       </c>
@@ -4341,7 +4344,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>131</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>140</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>140</v>
       </c>
@@ -4528,7 +4531,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>140</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>140</v>
       </c>
@@ -4556,7 +4559,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>140</v>
       </c>
@@ -4570,7 +4573,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>140</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>140</v>
       </c>
@@ -4953,7 +4956,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>173</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>174</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>184</v>
       </c>
@@ -5842,7 +5845,7 @@
         <v>19256</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>230</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>230</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>230</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>230</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>230</v>
       </c>
@@ -5917,7 +5920,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>230</v>
       </c>
@@ -5932,7 +5935,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>230</v>
       </c>
@@ -5947,7 +5950,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>230</v>
       </c>
@@ -5962,7 +5965,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>230</v>
       </c>
@@ -6108,6 +6111,14 @@
         <v>18500</v>
       </c>
     </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F323" s="5">
+        <v>14500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KATALOG_DAMA.xlsx
+++ b/KATALOG_DAMA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADEBA3D-D2A2-46D5-AEF1-E7FCD24BA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6586DB-2134-4DB5-BF19-F740E38E0507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="2895" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
+    <workbookView xWindow="3270" yWindow="2535" windowWidth="15375" windowHeight="7875" xr2:uid="{18B9A474-A199-46A4-8A04-E0A129F1C44E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="275">
   <si>
     <t>ALQURAN SAKU RESLETING QURAN MINI TERJEMAHAN | QURAN CANTIK | QURAN SAKU</t>
   </si>
@@ -769,6 +769,87 @@
   </si>
   <si>
     <t>PAKET MURAH Al Quran Mushaf Al-Aqeel A5 Kertas Koran Tanpa Terjemahan | BANDUNG</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Aqeel Full Color A5 B5 Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Wakaf Saku A6 Al Aqeel Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Alquran Al Aqeel A5 Kertas Koran Tanpa Terjemahan Wakaf Ibtida (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Legend Gold Silver Al Aqeel A5 A7 Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>PAKET MURAH Alquran Al-Aqeel Tanpa Terjemahan (BANDUNG) Alquran Untuk Wakaf Hadiah Hampers</t>
+  </si>
+  <si>
+    <t>Paket Hemat Grosir Wakaf Al Quran Al Aqeel A5 Kertas koran Non Terjemah (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN AL AQEEL A6 KERTAS HVS EDISI TAHLILAN (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN AL QUDDUS SAKU A7 KULIT RESLETING (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN CUSTOM NAMA FOTO DI COVER SISIPAN ACARA TASYAKUR TAHLIL YASIN (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Al Quddus Tanpa terjemahan uk A5 DAN A4 Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Al Aqeel B5 Pastel Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN TERJEMAHAN AL ALEEM A5 KERTAS HVS WAQAF IBTIDA (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN TADJWID DAN TERJEMAHAN TAFSIR ASBABUNNUZUL WAQAF IBTIDA MUSHAF MUMTAAZ A5 KERTAS QPP (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Juz'amma A5 kertas HVS Edisi Terbaru Lebih Lengkap Terjemahan Tajwid Asmaul Husnah (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN MUSHAF AL ALEEM A6 SAKU KERTAS QPP (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al QURAN TADJWID TANPA TERJEMAHAN MUSHAF SUBHAAN A5 KERTAS QPP (BANDUNG)</t>
+  </si>
+  <si>
+    <t>A7 Satuan</t>
+  </si>
+  <si>
+    <t>A5 Satuan</t>
+  </si>
+  <si>
+    <t>A4 Satuan</t>
+  </si>
+  <si>
+    <t>A5 KORAN</t>
+  </si>
+  <si>
+    <t>A6 HVS</t>
+  </si>
+  <si>
+    <t>A5 HVS</t>
+  </si>
+  <si>
+    <t>A7 HVS</t>
+  </si>
+  <si>
+    <t>AL FIKRAH</t>
+  </si>
+  <si>
+    <t>AL QUDDUS</t>
+  </si>
+  <si>
+    <t>AL AQEEL</t>
+  </si>
+  <si>
+    <t>A4 HVS</t>
   </si>
 </sst>
 </file>
@@ -854,7 +935,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -879,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1195,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F8CC9F-DD7D-453D-93E0-632FA723DE62}">
-  <dimension ref="A1:F323"/>
+  <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B319" workbookViewId="0">
-      <selection activeCell="F324" sqref="F324"/>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6111,12 +6195,291 @@
         <v>18500</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
         <v>247</v>
       </c>
       <c r="F323" s="5">
         <v>14500</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A324" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D324" t="s">
+        <v>20</v>
+      </c>
+      <c r="F324" s="5">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A325" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D325" t="s">
+        <v>137</v>
+      </c>
+      <c r="F325" s="5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A326" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F326" s="5">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A327" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F327" s="5">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A328" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D328" t="s">
+        <v>264</v>
+      </c>
+      <c r="F328" s="5">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A329" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D329" t="s">
+        <v>265</v>
+      </c>
+      <c r="F329" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A330" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D330" t="s">
+        <v>266</v>
+      </c>
+      <c r="F330" s="5">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A331" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D331" t="s">
+        <v>267</v>
+      </c>
+      <c r="F331" s="5">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A332" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D332" t="s">
+        <v>268</v>
+      </c>
+      <c r="F332" s="5">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A333" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D333" t="s">
+        <v>269</v>
+      </c>
+      <c r="F333" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A334" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="D334" t="s">
+        <v>270</v>
+      </c>
+      <c r="F334" s="5">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A335" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F335" s="5">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A336" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F336" s="5">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A337" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F337" s="5">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A338" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B338" t="s">
+        <v>271</v>
+      </c>
+      <c r="D338" t="s">
+        <v>269</v>
+      </c>
+      <c r="F338" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A339" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B339" t="s">
+        <v>272</v>
+      </c>
+      <c r="D339" t="s">
+        <v>269</v>
+      </c>
+      <c r="F339" s="5">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A340" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B340" t="s">
+        <v>273</v>
+      </c>
+      <c r="D340" t="s">
+        <v>269</v>
+      </c>
+      <c r="F340" s="5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A341" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B341" t="s">
+        <v>273</v>
+      </c>
+      <c r="D341" t="s">
+        <v>267</v>
+      </c>
+      <c r="F341" s="5">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A342" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B342" t="s">
+        <v>273</v>
+      </c>
+      <c r="D342" t="s">
+        <v>268</v>
+      </c>
+      <c r="F342" s="5">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A343" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D343" t="s">
+        <v>269</v>
+      </c>
+      <c r="F343" s="5">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A344" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="D344" t="s">
+        <v>274</v>
+      </c>
+      <c r="F344" s="5">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A345" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F345" s="5">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A346" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F346" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A347" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F347" s="5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A348" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F348" s="5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A349" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F349" s="5">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A350" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F350" s="5">
+        <v>75000</v>
       </c>
     </row>
   </sheetData>
